--- a/First iteration/scripts/APA Analisys/SynchronisedData.xlsx
+++ b/First iteration/scripts/APA Analisys/SynchronisedData.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
